--- a/Work/MS BRIBox/PM/2/KC Batusangkar/Teras Barulak/FORM PM Teras Barulak.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Batusangkar/Teras Barulak/FORM PM Teras Barulak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Batusangkar\Teras Barulak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E001A81-D0EF-4847-A315-9CAE6A6DE09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8342608A-A692-4240-8A63-8151C4122746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form PM'!$A$7:$W$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1019,6 +1019,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1044,29 +1067,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="V38" sqref="A1:V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1320,28 +1320,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="85"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="94"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
@@ -1455,10 +1455,10 @@
       <c r="T7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="86" t="s">
+      <c r="U7" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="87"/>
+      <c r="V7" s="96"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -2190,50 +2190,50 @@
       <c r="W22" s="49"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="92">
+      <c r="A23" s="81">
         <v>15</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="97" t="s">
+      <c r="F23" s="86" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98" t="s">
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
       <c r="O23" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="99"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="88"/>
       <c r="T23" s="55" t="s">
         <v>62</v>
       </c>
       <c r="U23" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="V23" s="98"/>
+      <c r="V23" s="87"/>
       <c r="W23" s="49"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,29 +2351,29 @@
       <c r="G26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
       <c r="K26" s="56"/>
       <c r="L26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
       <c r="O26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
       <c r="T26" s="55" t="s">
         <v>62</v>
       </c>
       <c r="U26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="V26" s="100"/>
+      <c r="V26" s="89"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="77"/>
@@ -2390,14 +2390,14 @@
       <c r="D28" s="78"/>
       <c r="E28" s="78"/>
       <c r="L28" s="49"/>
-      <c r="Q28" s="82" t="s">
+      <c r="Q28" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="77"/>
@@ -2406,14 +2406,14 @@
       <c r="D29" s="78"/>
       <c r="E29" s="78"/>
       <c r="L29" s="49"/>
-      <c r="Q29" s="88" t="s">
+      <c r="Q29" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="97"/>
+      <c r="T29" s="97"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="97"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77"/>
@@ -2488,15 +2488,15 @@
       <c r="J36" s="78"/>
       <c r="K36" s="78"/>
       <c r="L36" s="49"/>
-      <c r="Q36" s="81" t="s">
+      <c r="Q36" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="R36" s="81"/>
-      <c r="T36" s="82" t="s">
+      <c r="R36" s="90"/>
+      <c r="T36" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="77"/>
@@ -2511,15 +2511,15 @@
       <c r="J37" s="78"/>
       <c r="K37" s="80"/>
       <c r="L37" s="49"/>
-      <c r="Q37" s="81" t="s">
+      <c r="Q37" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="R37" s="81"/>
-      <c r="T37" s="82" t="s">
+      <c r="R37" s="90"/>
+      <c r="T37" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="U37" s="82"/>
-      <c r="V37" s="82"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="77"/>
@@ -6708,28 +6708,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="85"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="94"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6837,10 +6837,10 @@
       <c r="T7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="86" t="s">
+      <c r="U7" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="87"/>
+      <c r="V7" s="96"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -10023,19 +10023,19 @@
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="2"/>
-      <c r="Q128" s="89" t="s">
+      <c r="Q128" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="R128" s="90"/>
-      <c r="S128" s="90"/>
+      <c r="R128" s="99"/>
+      <c r="S128" s="99"/>
     </row>
     <row r="129" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="2"/>
-      <c r="Q129" s="91" t="s">
+      <c r="Q129" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="R129" s="90"/>
-      <c r="S129" s="90"/>
+      <c r="R129" s="99"/>
+      <c r="S129" s="99"/>
     </row>
     <row r="130" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="2"/>
